--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -911,7 +911,7 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1076,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="36">
-        <v>50209025</v>
+        <v>59025</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1151,7 +1151,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="36">
-        <v>41122025</v>
+        <v>410025</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>50209025</v>
+        <v>59025</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>73</v>
@@ -1296,7 +1296,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="33">
-        <v>382</v>
+        <v>1382</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>67</v>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>50209025</v>
+        <v>59025</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>55</v>
